--- a/Source Data/Fig. 4.xlsx
+++ b/Source Data/Fig. 4.xlsx
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1227,7 +1227,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>54.01</v>
+        <v>49.7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
